--- a/data/trans_bre/P21D_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21D_2_R-Estudios-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.63568886104246</v>
+        <v>-3.678446531539383</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.6010895797836074</v>
+        <v>-0.5964131776272475</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.983593857850217</v>
+        <v>1.964296292349877</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.9614914152706461</v>
+        <v>0.9308955532877683</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.243065421730785</v>
+        <v>-1.271130018587304</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3914348796134578</v>
+        <v>-0.3997291237312451</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.705958384790398</v>
+        <v>1.571831710437923</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9783548708683347</v>
+        <v>0.9659702756674893</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1470056485335713</v>
+        <v>0.1485803170930774</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.395968798489361</v>
+        <v>1.287737711071374</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7493673535469491</v>
+        <v>-0.7502538725820791</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2766774764104981</v>
+        <v>-0.278233583435584</v>
       </c>
     </row>
     <row r="15">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.289765672056377</v>
+        <v>1.185235397042015</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.784680113812081</v>
+        <v>0.7571566844732942</v>
       </c>
     </row>
     <row r="16">
